--- a/biology/Zoologie/Amapasaurus_tetradactylus/Amapasaurus_tetradactylus.xlsx
+++ b/biology/Zoologie/Amapasaurus_tetradactylus/Amapasaurus_tetradactylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amapasaurus tetradactylus, unique représentant du genre Amapasaurus, est une espèce de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amapasaurus tetradactylus, unique représentant du genre Amapasaurus, est une espèce de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre  au Brésil en Amapá et en Amazonas, en Guyane et au Suriname[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre  au Brésil en Amapá et en Amazonas, en Guyane et au Suriname.
 Sa présence est incertaine au Guyana.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce diurne et ovipare possède des pattes petites voire atrophiées avec quatre doigts.
 </t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cunha, 1970 : Lacertílios da Amazônia. IV. Um novo gênero e espécie de lagarto do Território Federal do Amapá (Lacertilia: Teiidae). Boletim do Museu Paraense Emílio Goeldi, nova série Zoologia, vol. 74, p. 1-8.</t>
         </is>
